--- a/biology/Zoologie/Antennophorina/Antennophorina.xlsx
+++ b/biology/Zoologie/Antennophorina/Antennophorina.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Antennophorina sont une cohorte d'acariens mesostigmates.
 </t>
@@ -511,9 +523,11 @@
           <t>Liste des familles</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon Beaulieu, Dowling, Klompen, de Moraes &amp; Walter 2011[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon Beaulieu, Dowling, Klompen, de Moraes &amp; Walter 2011 :
 Aenictequoidea Kethley, 1977
 Aenictequidae Kethley, 1977
 Euphysalozerconidae Kim, 2008
@@ -569,7 +583,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Camin &amp; Gorirossi, 1955 : A revision of the suborder Mesostigmata (Acarina) based on new interpretations of comparative morphological data. Chicago Academy of Sciences Special Publication, n. 11, p. 1-70.</t>
         </is>
